--- a/teaching/traditional_assets/database/data/brazil/brazil_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/brazil/brazil_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.061</v>
+        <v>0.03625</v>
       </c>
       <c r="E2">
-        <v>0.177</v>
+        <v>0.0591</v>
       </c>
       <c r="F2">
-        <v>0.164</v>
+        <v>0.096</v>
       </c>
       <c r="G2">
-        <v>0.2638733151788371</v>
+        <v>0.342191826206309</v>
       </c>
       <c r="H2">
-        <v>0.186892148561752</v>
+        <v>0.2743792612926721</v>
       </c>
       <c r="I2">
-        <v>0.1986086638138173</v>
+        <v>0.2609955484035518</v>
       </c>
       <c r="J2">
-        <v>0.1463675785595962</v>
+        <v>0.2088836813286388</v>
       </c>
       <c r="K2">
-        <v>1731.2</v>
+        <v>1622.14</v>
       </c>
       <c r="L2">
-        <v>0.3961646719604567</v>
+        <v>0.4265276232997557</v>
       </c>
       <c r="M2">
-        <v>825.0070000000001</v>
+        <v>853.5180999999999</v>
       </c>
       <c r="N2">
-        <v>0.01721713016874732</v>
+        <v>0.01810437529033202</v>
       </c>
       <c r="O2">
-        <v>0.4765521025878005</v>
+        <v>0.5261679633077293</v>
       </c>
       <c r="P2">
-        <v>770.51</v>
+        <v>770.4780999999999</v>
       </c>
       <c r="Q2">
-        <v>0.01607982837275501</v>
+        <v>0.01634297465441209</v>
       </c>
       <c r="R2">
-        <v>0.4450727818853975</v>
+        <v>0.4749763275672876</v>
       </c>
       <c r="S2">
-        <v>54.49700000000004</v>
+        <v>83.03999999999995</v>
       </c>
       <c r="T2">
-        <v>0.06605640921834606</v>
+        <v>0.09729143412424407</v>
       </c>
       <c r="U2">
-        <v>6075</v>
+        <v>10868</v>
       </c>
       <c r="V2">
-        <v>0.1267796100822659</v>
+        <v>0.2305262778321027</v>
       </c>
       <c r="W2">
-        <v>0.1296199793643329</v>
+        <v>0.07815781531742355</v>
       </c>
       <c r="X2">
-        <v>0.0345475548303948</v>
+        <v>0.02212857668223463</v>
       </c>
       <c r="Y2">
-        <v>0.09507242453393809</v>
+        <v>0.05602923863518892</v>
       </c>
       <c r="Z2">
-        <v>0.2071927396485419</v>
+        <v>0.1741519369905669</v>
       </c>
       <c r="AA2">
-        <v>0.1452472138680453</v>
+        <v>0.05448324663969531</v>
       </c>
       <c r="AB2">
-        <v>0.03749165829277425</v>
+        <v>0.02337216558738253</v>
       </c>
       <c r="AC2">
-        <v>0.1077555555752711</v>
+        <v>0.03265487250523083</v>
       </c>
       <c r="AD2">
-        <v>20462.2</v>
+        <v>24468.52</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>20462.2</v>
+        <v>24468.52</v>
       </c>
       <c r="AG2">
-        <v>14387.2</v>
+        <v>13600.52</v>
       </c>
       <c r="AH2">
-        <v>0.2992424685580579</v>
+        <v>0.3416779286166919</v>
       </c>
       <c r="AI2">
-        <v>0.6192672489453008</v>
+        <v>0.6934829631510687</v>
       </c>
       <c r="AJ2">
-        <v>0.23091565684937</v>
+        <v>0.2238959634747457</v>
       </c>
       <c r="AK2">
-        <v>0.5334994586095907</v>
+        <v>0.5570440441162015</v>
       </c>
       <c r="AL2">
-        <v>185.3</v>
+        <v>157.1</v>
       </c>
       <c r="AM2">
-        <v>58.01400000000001</v>
+        <v>89.36499999999999</v>
       </c>
       <c r="AN2">
-        <v>26.74797385620915</v>
+        <v>23.82755867173045</v>
       </c>
       <c r="AO2">
-        <v>4.683756071235834</v>
+        <v>6.318268618714195</v>
       </c>
       <c r="AP2">
-        <v>18.80679738562091</v>
+        <v>13.24424968351349</v>
       </c>
       <c r="AQ2">
-        <v>14.96018202502844</v>
+        <v>11.10725675600067</v>
       </c>
     </row>
     <row r="3">
@@ -728,121 +728,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.00524</v>
+        <v>-0.0166</v>
       </c>
       <c r="E3">
-        <v>0.128</v>
+        <v>0.07980000000000001</v>
       </c>
       <c r="G3">
-        <v>0.7593470247498683</v>
+        <v>1.09845288326301</v>
       </c>
       <c r="H3">
-        <v>0.7593470247498683</v>
+        <v>1.09845288326301</v>
       </c>
       <c r="I3">
-        <v>0.7203791469194313</v>
+        <v>0.6652601969057665</v>
       </c>
       <c r="J3">
-        <v>0.4862559241706161</v>
+        <v>0.5332316347506221</v>
       </c>
       <c r="K3">
-        <v>17.3</v>
+        <v>10.3</v>
       </c>
       <c r="L3">
-        <v>0.09110057925223802</v>
+        <v>0.07243319268635726</v>
       </c>
       <c r="M3">
-        <v>4.107</v>
+        <v>3.62</v>
       </c>
       <c r="N3">
-        <v>0.02408797653958944</v>
+        <v>0.03112639724849527</v>
       </c>
       <c r="O3">
-        <v>0.2373988439306358</v>
+        <v>0.3514563106796116</v>
       </c>
       <c r="P3">
-        <v>4.01</v>
+        <v>3.58</v>
       </c>
       <c r="Q3">
-        <v>0.02351906158357771</v>
+        <v>0.03078245915735168</v>
       </c>
       <c r="R3">
-        <v>0.2317919075144508</v>
+        <v>0.3475728155339806</v>
       </c>
       <c r="S3">
-        <v>0.09700000000000042</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="T3">
-        <v>0.0236182128074021</v>
+        <v>0.01104972375690609</v>
       </c>
       <c r="U3">
-        <v>54.1</v>
+        <v>477.4</v>
       </c>
       <c r="V3">
-        <v>0.3173020527859238</v>
+        <v>4.104901117798796</v>
       </c>
       <c r="W3">
-        <v>0.0781038374717833</v>
+        <v>0.04553492484526968</v>
       </c>
       <c r="X3">
-        <v>0.03154105290737202</v>
+        <v>0.02198621225812584</v>
       </c>
       <c r="Y3">
-        <v>0.04656278456441128</v>
+        <v>0.02354871258714384</v>
       </c>
       <c r="Z3">
-        <v>16.52741514360316</v>
+        <v>0.8130360205831904</v>
       </c>
       <c r="AA3">
-        <v>8.036553524804193</v>
+        <v>0.433536526366715</v>
       </c>
       <c r="AB3">
-        <v>0.03243709573229873</v>
+        <v>0.02326153796298624</v>
       </c>
       <c r="AC3">
-        <v>8.004116429071894</v>
+        <v>0.4102749884037288</v>
       </c>
       <c r="AD3">
-        <v>2.8</v>
+        <v>2.22</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.8</v>
+        <v>2.22</v>
       </c>
       <c r="AG3">
-        <v>-51.3</v>
+        <v>-475.1799999999999</v>
       </c>
       <c r="AH3">
-        <v>0.01615695326024235</v>
+        <v>0.01873101586230172</v>
       </c>
       <c r="AI3">
-        <v>0.01222707423580786</v>
+        <v>0.01232511658894071</v>
       </c>
       <c r="AJ3">
-        <v>-0.4303691275167786</v>
+        <v>1.324063753901026</v>
       </c>
       <c r="AK3">
-        <v>-0.2933104631217839</v>
+        <v>1.598425726587729</v>
       </c>
       <c r="AL3">
-        <v>107.3</v>
+        <v>82</v>
       </c>
       <c r="AM3">
-        <v>107.114</v>
+        <v>81.265</v>
       </c>
       <c r="AN3">
-        <v>0.02040816326530612</v>
+        <v>0.02336842105263158</v>
       </c>
       <c r="AO3">
-        <v>1.27493010251631</v>
+        <v>1.153658536585366</v>
       </c>
       <c r="AP3">
-        <v>-0.3739067055393587</v>
+        <v>-5.001894736842105</v>
       </c>
       <c r="AQ3">
-        <v>1.277143977444592</v>
+        <v>1.164092782870854</v>
       </c>
     </row>
     <row r="4">
@@ -862,124 +862,124 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.235</v>
+        <v>0.283</v>
       </c>
       <c r="E4">
-        <v>0.226</v>
+        <v>0.0591</v>
       </c>
       <c r="F4">
-        <v>0.164</v>
+        <v>0.096</v>
       </c>
       <c r="G4">
-        <v>0.7450155073105892</v>
+        <v>0.8151696898771211</v>
       </c>
       <c r="H4">
-        <v>0.4966031605375867</v>
+        <v>0.6265359859566998</v>
       </c>
       <c r="I4">
-        <v>0.5398759415152857</v>
+        <v>0.6334844938560562</v>
       </c>
       <c r="J4">
-        <v>0.4499209959634297</v>
+        <v>0.4930922148735211</v>
       </c>
       <c r="K4">
-        <v>615.3</v>
+        <v>674.3</v>
       </c>
       <c r="L4">
-        <v>0.4543642002658396</v>
+        <v>0.4931977764774721</v>
       </c>
       <c r="M4">
-        <v>445.4</v>
+        <v>579.3</v>
       </c>
       <c r="N4">
-        <v>0.02035360620753001</v>
+        <v>0.02377385901481916</v>
       </c>
       <c r="O4">
-        <v>0.723874532748253</v>
+        <v>0.8591131543823224</v>
       </c>
       <c r="P4">
-        <v>427.3</v>
+        <v>517.5</v>
       </c>
       <c r="Q4">
-        <v>0.01952648390767305</v>
+        <v>0.02123765240837031</v>
       </c>
       <c r="R4">
-        <v>0.6944579879733465</v>
+        <v>0.7674625537594543</v>
       </c>
       <c r="S4">
-        <v>18.10000000000002</v>
+        <v>61.79999999999995</v>
       </c>
       <c r="T4">
-        <v>0.04063762909744055</v>
+        <v>0.1066804764370792</v>
       </c>
       <c r="U4">
-        <v>154.2</v>
+        <v>229.7</v>
       </c>
       <c r="V4">
-        <v>0.007046533626405765</v>
+        <v>0.00942664494338678</v>
       </c>
       <c r="W4">
-        <v>0.09892282958199357</v>
+        <v>0.1107807057895774</v>
       </c>
       <c r="X4">
-        <v>0.03196142182918336</v>
+        <v>0.02227094110634341</v>
       </c>
       <c r="Y4">
-        <v>0.0669614077528102</v>
+        <v>0.08850976468323403</v>
       </c>
       <c r="Z4">
-        <v>0.6456565271288263</v>
+        <v>0.665660450849603</v>
       </c>
       <c r="AA4">
-        <v>0.2904944277360907</v>
+        <v>0.3282319860631373</v>
       </c>
       <c r="AB4">
-        <v>0.03303711773941832</v>
+        <v>0.02348279321177882</v>
       </c>
       <c r="AC4">
-        <v>0.2574573099966724</v>
+        <v>0.3047491928513585</v>
       </c>
       <c r="AD4">
-        <v>1501</v>
+        <v>1304.2</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1501</v>
+        <v>1304.2</v>
       </c>
       <c r="AG4">
-        <v>1346.8</v>
+        <v>1074.5</v>
       </c>
       <c r="AH4">
-        <v>0.06418891468989613</v>
+        <v>0.05080381593452611</v>
       </c>
       <c r="AI4">
-        <v>0.1977315540567243</v>
+        <v>0.2267385257301808</v>
       </c>
       <c r="AJ4">
-        <v>0.05797700377530682</v>
+        <v>0.04223397899503176</v>
       </c>
       <c r="AK4">
-        <v>0.1810969624440291</v>
+        <v>0.1945747242996577</v>
       </c>
       <c r="AL4">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="AM4">
-        <v>-49.09999999999999</v>
+        <v>-18</v>
       </c>
       <c r="AN4">
-        <v>2.390888818094935</v>
+        <v>1.449594309214183</v>
       </c>
       <c r="AO4">
-        <v>9.373076923076923</v>
+        <v>17.67551020408163</v>
       </c>
       <c r="AP4">
-        <v>2.145269194010832</v>
+        <v>1.194286984550406</v>
       </c>
       <c r="AQ4">
-        <v>-14.89002036659878</v>
+        <v>-48.11666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -990,7 +990,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Banco BTG Pactual S.A. (BOVESPA:BPAC3)</t>
+          <t>Consórcio Alfa de Administração S.A. (BOVESPA:BRGE12)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -999,109 +999,121 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.012</v>
+        <v>-0.0334</v>
       </c>
       <c r="E5">
-        <v>-0.00135</v>
+        <v>-0.0285</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.2678883071553229</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2678883071553229</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2783595113438045</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2319103639689649</v>
       </c>
       <c r="K5">
-        <v>768.4</v>
+        <v>8.75</v>
       </c>
       <c r="L5">
-        <v>0.4713532081953135</v>
+        <v>0.07635253054101222</v>
       </c>
       <c r="M5">
-        <v>331.2</v>
+        <v>0.76</v>
       </c>
       <c r="N5">
-        <v>0.01389343333920616</v>
+        <v>0.005744520030234315</v>
       </c>
       <c r="O5">
-        <v>0.431025507548152</v>
+        <v>0.08685714285714285</v>
       </c>
       <c r="P5">
-        <v>294.9</v>
+        <v>0.76</v>
       </c>
       <c r="Q5">
-        <v>0.01237069290981853</v>
+        <v>0.005744520030234315</v>
       </c>
       <c r="R5">
-        <v>0.3837844872462259</v>
+        <v>0.08685714285714285</v>
       </c>
       <c r="S5">
-        <v>36.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.1096014492753624</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>5833.5</v>
+        <v>42.8</v>
       </c>
       <c r="V5">
-        <v>0.2447081623920868</v>
+        <v>0.3235071806500378</v>
       </c>
       <c r="W5">
-        <v>0.1603171291466722</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="X5">
-        <v>0.03713368783160624</v>
+        <v>0.02182837413446447</v>
       </c>
       <c r="Y5">
-        <v>0.123183441315066</v>
+        <v>0.009035823396399724</v>
       </c>
       <c r="Z5">
-        <v>0.1029478629887845</v>
+        <v>0.4698646986469865</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.1089664932793906</v>
       </c>
       <c r="AB5">
-        <v>0.04194619884613018</v>
+        <v>0.02182837413446447</v>
       </c>
       <c r="AC5">
-        <v>-0.04194619884613018</v>
+        <v>0.08713811914492614</v>
       </c>
       <c r="AD5">
-        <v>16937.1</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>16937.1</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>11103.6</v>
+        <v>-42.8</v>
       </c>
       <c r="AH5">
-        <v>0.4153723909092916</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.770456530441428</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.3177704895513161</v>
+        <v>-0.4782122905027932</v>
       </c>
       <c r="AK5">
-        <v>0.687542183446132</v>
+        <v>-0.1504922644163151</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>26.1</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>26.1</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>1.222222222222222</v>
+      </c>
+      <c r="AP5">
+        <v>-1.329192546583851</v>
+      </c>
+      <c r="AQ5">
+        <v>1.222222222222222</v>
       </c>
     </row>
     <row r="6">
@@ -1112,117 +1124,358 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Mercantil do Brasil Financeira S.A. (BOVESPA:MERC3)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>-0.201</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1.99</v>
+      </c>
+      <c r="L6">
+        <v>0.2156013001083424</v>
+      </c>
+      <c r="M6">
+        <v>0.911</v>
+      </c>
+      <c r="N6">
+        <v>0.01405864197530864</v>
+      </c>
+      <c r="O6">
+        <v>0.4577889447236181</v>
+      </c>
+      <c r="P6">
+        <v>0.911</v>
+      </c>
+      <c r="Q6">
+        <v>0.01405864197530864</v>
+      </c>
+      <c r="R6">
+        <v>0.4577889447236181</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>6.2</v>
+      </c>
+      <c r="V6">
+        <v>0.09567901234567902</v>
+      </c>
+      <c r="W6">
+        <v>0.03153724247226624</v>
+      </c>
+      <c r="X6">
+        <v>0.02182837413446447</v>
+      </c>
+      <c r="Y6">
+        <v>0.009708868337801768</v>
+      </c>
+      <c r="Z6">
+        <v>0.1575085324232082</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0.02182837413446447</v>
+      </c>
+      <c r="AC6">
+        <v>-0.02182837413446447</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>-6.2</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>-0.10580204778157</v>
+      </c>
+      <c r="AK6">
+        <v>-0.158974358974359</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Banco BTG Pactual S.A. (BOVESPA:BPAC3)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>1.1</v>
+      </c>
+      <c r="E7">
+        <v>-0.0409</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>698.9</v>
+      </c>
+      <c r="L7">
+        <v>0.5350635431021282</v>
+      </c>
+      <c r="M7">
+        <v>219.2271</v>
+      </c>
+      <c r="N7">
+        <v>0.01034099849998585</v>
+      </c>
+      <c r="O7">
+        <v>0.3136744884819</v>
+      </c>
+      <c r="P7">
+        <v>198.0271</v>
+      </c>
+      <c r="Q7">
+        <v>0.009340989065934583</v>
+      </c>
+      <c r="R7">
+        <v>0.2833411074545714</v>
+      </c>
+      <c r="S7">
+        <v>21.19999999999999</v>
+      </c>
+      <c r="T7">
+        <v>0.09670337289504807</v>
+      </c>
+      <c r="U7">
+        <v>9731.299999999999</v>
+      </c>
+      <c r="V7">
+        <v>0.4590279153576921</v>
+      </c>
+      <c r="W7">
+        <v>0.1398639183510106</v>
+      </c>
+      <c r="X7">
+        <v>0.0302475387077368</v>
+      </c>
+      <c r="Y7">
+        <v>0.1096163796432738</v>
+      </c>
+      <c r="Z7">
+        <v>0.08112741140081738</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0.03825758587807686</v>
+      </c>
+      <c r="AC7">
+        <v>-0.03825758587807686</v>
+      </c>
+      <c r="AD7">
+        <v>21585.5</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>21585.5</v>
+      </c>
+      <c r="AG7">
+        <v>11854.2</v>
+      </c>
+      <c r="AH7">
+        <v>0.5045073892201293</v>
+      </c>
+      <c r="AI7">
+        <v>0.8208319548543376</v>
+      </c>
+      <c r="AJ7">
+        <v>0.3586313305500091</v>
+      </c>
+      <c r="AK7">
+        <v>0.7155827065399799</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Banco do Nordeste do Brasil S.A. (BOVESPA:BNBR3)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D6">
-        <v>0.11</v>
-      </c>
-      <c r="E6">
-        <v>0.232</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>330.2</v>
-      </c>
-      <c r="L6">
-        <v>0.2761793241886919</v>
-      </c>
-      <c r="M6">
-        <v>44.3</v>
-      </c>
-      <c r="N6">
-        <v>0.02187006319115324</v>
-      </c>
-      <c r="O6">
-        <v>0.1341611144760751</v>
-      </c>
-      <c r="P6">
-        <v>44.3</v>
-      </c>
-      <c r="Q6">
-        <v>0.02187006319115324</v>
-      </c>
-      <c r="R6">
-        <v>0.1341611144760751</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>33.2</v>
-      </c>
-      <c r="V6">
-        <v>0.01639020537124803</v>
-      </c>
-      <c r="W6">
-        <v>0.3409748038000826</v>
-      </c>
-      <c r="X6">
-        <v>0.03944938004086601</v>
-      </c>
-      <c r="Y6">
-        <v>0.3015254237592166</v>
-      </c>
-      <c r="Z6">
-        <v>0.3799294543836791</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0.04407961670005617</v>
-      </c>
-      <c r="AC6">
-        <v>-0.04407961670005617</v>
-      </c>
-      <c r="AD6">
-        <v>2021.3</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>2021.3</v>
-      </c>
-      <c r="AG6">
-        <v>1988.1</v>
-      </c>
-      <c r="AH6">
-        <v>0.499468729150708</v>
-      </c>
-      <c r="AI6">
-        <v>0.6239928379588182</v>
-      </c>
-      <c r="AJ6">
-        <v>0.495328499887884</v>
-      </c>
-      <c r="AK6">
-        <v>0.620099185926827</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
+      <c r="D8">
+        <v>0.0891</v>
+      </c>
+      <c r="E8">
+        <v>0.198</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>227.9</v>
+      </c>
+      <c r="L8">
+        <v>0.2638647678592104</v>
+      </c>
+      <c r="M8">
+        <v>49.7</v>
+      </c>
+      <c r="N8">
+        <v>0.03931962025316456</v>
+      </c>
+      <c r="O8">
+        <v>0.2180781044317683</v>
+      </c>
+      <c r="P8">
+        <v>49.7</v>
+      </c>
+      <c r="Q8">
+        <v>0.03931962025316456</v>
+      </c>
+      <c r="R8">
+        <v>0.2180781044317683</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>380.6</v>
+      </c>
+      <c r="V8">
+        <v>0.3011075949367089</v>
+      </c>
+      <c r="W8">
+        <v>0.1871100164203613</v>
+      </c>
+      <c r="X8">
+        <v>0.03214204096663363</v>
+      </c>
+      <c r="Y8">
+        <v>0.1549679754537276</v>
+      </c>
+      <c r="Z8">
+        <v>0.2693927201272574</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0.03990263869675596</v>
+      </c>
+      <c r="AC8">
+        <v>-0.03990263869675596</v>
+      </c>
+      <c r="AD8">
+        <v>1576.6</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>1576.6</v>
+      </c>
+      <c r="AG8">
+        <v>1196</v>
+      </c>
+      <c r="AH8">
+        <v>0.5550235865662184</v>
+      </c>
+      <c r="AI8">
+        <v>0.587866810843059</v>
+      </c>
+      <c r="AJ8">
+        <v>0.4861788617886179</v>
+      </c>
+      <c r="AK8">
+        <v>0.5197062529874419</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
         <v>0</v>
       </c>
     </row>
